--- a/result.xlsx
+++ b/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>sid</t>
   </si>
@@ -27,42 +27,6 @@
   </si>
   <si>
     <t>引用次数</t>
-  </si>
-  <si>
-    <t>17634449</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2007 Aug 2</t>
-  </si>
-  <si>
-    <t>The New England journal of medicine</t>
-  </si>
-  <si>
-    <t>over 100</t>
-  </si>
-  <si>
-    <t>21804106</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2012 Feb</t>
-  </si>
-  <si>
-    <t>European heart journal</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>26950853</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2016 Mar 7</t>
-  </si>
-  <si>
-    <t>PloS one</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
 </sst>
 </file>
@@ -398,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -420,48 +384,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FA48BF-79D5-4796-96B3-AE48E062E3B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28065" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>sid</t>
   </si>
@@ -32,20 +37,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -61,15 +72,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{CD627222-B219-4AE4-9A7D-A2D0913C7C3E}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +405,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,6 +427,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>